--- a/Button_Config.xlsx
+++ b/Button_Config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>button_name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>#00ff81</t>
+  </si>
+  <si>
+    <t>aaaabbbbb</t>
   </si>
   <si>
     <t>#00ff82</t>
@@ -470,13 +473,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -487,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -498,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -509,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -520,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
